--- a/@TraderPlus/Tools/PriceCalculator.xlsx
+++ b/@TraderPlus/Tools/PriceCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Mods\@TraderPlus\Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steam\steamapps\common\DayZ\!Workshop\@TraderPlus\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD565362-6127-43E1-8454-6F749D04D233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AEDB67-2DC6-4ED9-B9A7-A6EBAC29C8A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="31995" windowHeight="10875" xr2:uid="{89B1775A-7059-45B9-AB4E-A1569C90D706}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89B1775A-7059-45B9-AB4E-A1569C90D706}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,7 +490,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,33 +594,34 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="C5" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>250</v>
+      </c>
+      <c r="F5" s="1">
+        <v>125</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>800</v>
       </c>
       <c r="H5" s="1">
         <f>ROUNDUP((B5^(G5-1))*E5,)</f>
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="I5" s="1">
-        <f>ROUNDUP(H5*0.8,)</f>
-        <v>5</v>
+        <f>ROUNDUP((B5^(G5-1))*F5,)</f>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>